--- a/YMGK_Vize_Dökümanı_170542018/güncel konular tubitak-ths-soru-setleri.xlsx
+++ b/YMGK_Vize_Dökümanı_170542018/güncel konular tubitak-ths-soru-setleri.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Genel-Mühendislik-Sistem" sheetId="6" r:id="rId1"/>
@@ -2175,12 +2175,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2639,127 +2647,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2767,11 +2787,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2779,11 +2795,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2791,7 +2803,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2799,134 +2811,134 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3444,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="38.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3462,17 +3474,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -3515,31 +3527,31 @@
       <c r="AR1" s="3"/>
     </row>
     <row r="2" spans="1:50" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -3558,7 +3570,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:50" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -3653,14 +3665,14 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10">
         <f>(SUM(K6:K10))/5</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AG5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3685,76 +3697,76 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="107"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="59"/>
       <c r="K7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
-        <v>259</v>
-      </c>
+      <c r="E8" s="54"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="H8" s="108" t="s">
+        <v>259</v>
+      </c>
       <c r="I8" s="56"/>
       <c r="J8" s="59"/>
       <c r="K8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="54" t="s">
-        <v>259</v>
-      </c>
+      <c r="E9" s="54"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="H9" s="108" t="s">
+        <v>259</v>
+      </c>
       <c r="I9" s="56"/>
       <c r="J9" s="59"/>
       <c r="K9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="11" t="s">
         <v>151</v>
       </c>
@@ -3764,7 +3776,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="64" t="s">
         <v>259</v>
       </c>
       <c r="J10" s="59"/>
@@ -3794,7 +3806,7 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+      <c r="A12" s="73">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3816,7 +3828,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="11" t="s">
         <v>154</v>
       </c>
@@ -3836,7 +3848,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="11" t="s">
         <v>155</v>
       </c>
@@ -3846,7 +3858,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="63"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="64" t="s">
         <v>259</v>
       </c>
       <c r="J14" s="59"/>
@@ -3856,7 +3868,7 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="11" t="s">
         <v>156</v>
       </c>
@@ -3864,7 +3876,7 @@
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="64" t="s">
         <v>259</v>
       </c>
       <c r="H15" s="56"/>
@@ -3876,7 +3888,7 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="11" t="s">
         <v>157</v>
       </c>
@@ -3912,11 +3924,11 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10">
         <f>(SUM(K18:K24))/7</f>
-        <v>17.142857142857142</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+      <c r="A18" s="73">
         <v>3</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3926,7 +3938,7 @@
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="64" t="s">
         <v>259</v>
       </c>
       <c r="H18" s="63"/>
@@ -3938,47 +3950,47 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="62"/>
       <c r="I19" s="56"/>
       <c r="J19" s="59"/>
       <c r="K19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="62"/>
       <c r="J20" s="59"/>
       <c r="K20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="11" t="s">
         <v>162</v>
       </c>
@@ -3986,7 +3998,7 @@
       <c r="D21" s="53"/>
       <c r="E21" s="54"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="64" t="s">
         <v>259</v>
       </c>
       <c r="H21" s="63"/>
@@ -3998,7 +4010,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="11" t="s">
         <v>163</v>
       </c>
@@ -4006,7 +4018,7 @@
       <c r="D22" s="53"/>
       <c r="E22" s="54"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="64" t="s">
         <v>259</v>
       </c>
       <c r="H22" s="56"/>
@@ -4018,43 +4030,43 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="62"/>
       <c r="I23" s="56"/>
       <c r="J23" s="59"/>
       <c r="K23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F24" s="56"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
       <c r="I24" s="62"/>
       <c r="J24" s="59"/>
       <c r="K24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4078,7 +4090,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68">
+      <c r="A26" s="73">
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -4087,7 +4099,7 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="64" t="s">
         <v>259</v>
       </c>
       <c r="G26" s="56"/>
@@ -4100,7 +4112,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="11" t="s">
         <v>168</v>
       </c>
@@ -4110,7 +4122,7 @@
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="107" t="s">
+      <c r="I27" s="64" t="s">
         <v>259</v>
       </c>
       <c r="J27" s="59"/>
@@ -4120,14 +4132,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="107" t="s">
+      <c r="F28" s="64" t="s">
         <v>259</v>
       </c>
       <c r="G28" s="56"/>
@@ -4140,7 +4152,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="11" t="s">
         <v>170</v>
       </c>
@@ -4160,7 +4172,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="11" t="s">
         <v>171</v>
       </c>
@@ -4180,7 +4192,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="11" t="s">
         <v>172</v>
       </c>
@@ -4216,11 +4228,11 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10">
         <f>(SUM(K33:K37))/5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68">
+      <c r="A33" s="73">
         <v>5</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -4228,21 +4240,21 @@
       </c>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="54"/>
+      <c r="F33" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
       <c r="I33" s="62"/>
       <c r="J33" s="59"/>
       <c r="K33" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="11" t="s">
         <v>175</v>
       </c>
@@ -4262,27 +4274,27 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="39" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="54"/>
+      <c r="F35" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="56"/>
       <c r="G35" s="56"/>
       <c r="H35" s="56"/>
       <c r="I35" s="62"/>
       <c r="J35" s="59"/>
       <c r="K35" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="11" t="s">
         <v>177</v>
       </c>
@@ -4302,23 +4314,23 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="56"/>
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
       <c r="I37" s="62"/>
       <c r="J37" s="59"/>
       <c r="K37" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="39" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -4338,11 +4350,11 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10">
         <f>(SUM(K39:K43))/5</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68">
+      <c r="A39" s="73">
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -4350,97 +4362,97 @@
       </c>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="54"/>
+      <c r="F39" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F39" s="56"/>
       <c r="G39" s="56"/>
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
       <c r="J39" s="59"/>
       <c r="K39" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="54"/>
+      <c r="F40" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="56"/>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
       <c r="J40" s="59"/>
       <c r="K40" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="54"/>
+      <c r="F41" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="56"/>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="59"/>
       <c r="K41" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="56"/>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
       <c r="J42" s="59"/>
       <c r="K42" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="59"/>
       <c r="K43" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="39" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -4460,11 +4472,11 @@
       <c r="J44" s="10"/>
       <c r="K44" s="14">
         <f>(SUM(K45:K48))/4</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68">
+      <c r="A45" s="73">
         <v>7</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4472,77 +4484,77 @@
       </c>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="54"/>
+      <c r="F45" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F45" s="56"/>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="59"/>
       <c r="K45" s="10">
         <f>IF(E45="X",0,IF(F45="X",20,IF(G45="X",40,IF(H45="X",60,IF(I45="X",80,IF(J45="X",100))))))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="54"/>
+      <c r="F46" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F46" s="56"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
       <c r="J46" s="59"/>
       <c r="K46" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="54"/>
+      <c r="F47" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
+      <c r="G47" s="108"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
       <c r="J47" s="59"/>
       <c r="K47" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="54"/>
+      <c r="F48" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="56"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
       <c r="J48" s="59"/>
       <c r="K48" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:50" s="39" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4562,11 +4574,11 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10">
         <f>(SUM(K50:K52))/3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="68">
+      <c r="A50" s="73">
         <v>8</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -4574,57 +4586,57 @@
       </c>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="54"/>
+      <c r="F50" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F50" s="56"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
       <c r="J50" s="59"/>
       <c r="K50" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="54"/>
+      <c r="F51" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F51" s="56"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
       <c r="J51" s="59"/>
       <c r="K51" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="54"/>
+      <c r="F52" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F52" s="56"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
       <c r="J52" s="59"/>
       <c r="K52" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:50" s="40" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4644,7 +4656,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10">
         <f>(SUM(K54:K57))/4</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
@@ -4687,7 +4699,7 @@
       <c r="AX53" s="39"/>
     </row>
     <row r="54" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68">
+      <c r="A54" s="73">
         <v>9</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -4695,82 +4707,82 @@
       </c>
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
-      <c r="E54" s="54" t="s">
-        <v>259</v>
-      </c>
+      <c r="E54" s="54"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
+      <c r="H54" s="108" t="s">
+        <v>259</v>
+      </c>
       <c r="I54" s="56"/>
       <c r="J54" s="59"/>
       <c r="K54" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="41" t="s">
         <v>197</v>
       </c>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
-      <c r="E55" s="54" t="s">
-        <v>259</v>
-      </c>
+      <c r="E55" s="54"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
+      <c r="H55" s="108" t="s">
+        <v>259</v>
+      </c>
       <c r="I55" s="56"/>
       <c r="J55" s="59"/>
       <c r="K55" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:50" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="54"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
       <c r="I56" s="56"/>
       <c r="J56" s="59"/>
       <c r="K56" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="54"/>
+      <c r="F57" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="F57" s="56"/>
       <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="H57" s="108"/>
       <c r="I57" s="56"/>
       <c r="J57" s="59"/>
       <c r="K57" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:50" s="39" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -4779,32 +4791,32 @@
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:50" s="39" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="67"/>
     </row>
     <row r="60" spans="1:50" s="39" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="79"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="70"/>
     </row>
     <row r="61" spans="1:50" s="39" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
@@ -6936,12 +6948,6 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A59:K60"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C3:D3"/>
@@ -6953,6 +6959,12 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A59:K60"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6984,17 +6996,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="331.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -7036,31 +7048,31 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="49">
         <v>0</v>
       </c>
@@ -7079,7 +7091,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -7242,7 +7254,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="11" t="s">
         <v>207</v>
       </c>
@@ -7578,7 +7590,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="11" t="s">
         <v>225</v>
       </c>
@@ -7744,7 +7756,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="11" t="s">
         <v>234</v>
       </c>
@@ -7856,7 +7868,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
@@ -7968,7 +7980,7 @@
       </c>
     </row>
     <row r="49" spans="1:42" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="11" t="s">
         <v>246</v>
       </c>
@@ -8205,7 +8217,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="11" t="s">
         <v>257</v>
       </c>
@@ -8223,62 +8235,62 @@
       </c>
     </row>
     <row r="61" spans="1:42" s="46" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
     </row>
     <row r="62" spans="1:42" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
     </row>
     <row r="63" spans="1:42" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
     </row>
     <row r="64" spans="1:42" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
     </row>
     <row r="65" spans="1:11" s="46" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
     </row>
     <row r="66" spans="1:11" s="46" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
@@ -10410,6 +10422,13 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A62:K65"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A57:A60"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A1:B1"/>
@@ -10420,13 +10439,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A62:K65"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10461,17 +10473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="1" customFormat="1" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -10515,31 +10527,31 @@
       <c r="AS1" s="3"/>
     </row>
     <row r="2" spans="1:45" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -10558,7 +10570,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:45" s="9" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -10649,7 +10661,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
@@ -10667,7 +10679,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -10855,7 +10867,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
@@ -11139,7 +11151,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68">
+      <c r="A32" s="73">
         <v>7</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -11159,7 +11171,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -11177,7 +11189,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="11" t="s">
         <v>49</v>
       </c>
@@ -11208,32 +11220,32 @@
       <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="76"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" spans="1:11" s="19" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
     </row>
     <row r="38" spans="1:11" s="19" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
@@ -13385,12 +13397,6 @@
   </sheetData>
   <sheetProtection password="D374" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A36:K37"/>
@@ -13399,6 +13405,12 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13432,17 +13444,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="33" t="s">
         <v>139</v>
       </c>
@@ -13457,31 +13469,31 @@
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -13500,7 +13512,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:51" s="9" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -13598,7 +13610,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" s="20" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -13650,7 +13662,7 @@
       <c r="AQ6" s="19"/>
     </row>
     <row r="7" spans="1:51" s="20" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -13794,7 +13806,7 @@
       </c>
     </row>
     <row r="13" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
@@ -13832,7 +13844,7 @@
       </c>
     </row>
     <row r="15" spans="1:51" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68">
+      <c r="A15" s="73">
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -13852,7 +13864,7 @@
       </c>
     </row>
     <row r="16" spans="1:51" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
@@ -13870,7 +13882,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
@@ -13888,7 +13900,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="11" t="s">
         <v>60</v>
       </c>
@@ -13906,7 +13918,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
@@ -13924,7 +13936,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
@@ -14036,7 +14048,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
@@ -14074,7 +14086,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68">
+      <c r="A28" s="73">
         <v>5</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -14094,7 +14106,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="11" t="s">
         <v>70</v>
       </c>
@@ -14112,7 +14124,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="11" t="s">
         <v>72</v>
       </c>
@@ -14130,7 +14142,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="11" t="s">
         <v>73</v>
       </c>
@@ -14148,7 +14160,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
@@ -14166,7 +14178,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="11" t="s">
         <v>22</v>
       </c>
@@ -14184,7 +14196,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="11" t="s">
         <v>75</v>
       </c>
@@ -14222,7 +14234,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="68">
+      <c r="A36" s="73">
         <v>6</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -14242,7 +14254,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="11" t="s">
         <v>77</v>
       </c>
@@ -14260,7 +14272,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="11" t="s">
         <v>81</v>
       </c>
@@ -14278,7 +14290,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="11" t="s">
         <v>123</v>
       </c>
@@ -14296,7 +14308,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
@@ -14334,7 +14346,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68">
+      <c r="A42" s="73">
         <v>7</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -14354,7 +14366,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="11" t="s">
         <v>128</v>
       </c>
@@ -14372,7 +14384,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
@@ -14390,7 +14402,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="11" t="s">
         <v>122</v>
       </c>
@@ -14408,7 +14420,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="11" t="s">
         <v>84</v>
       </c>
@@ -14446,7 +14458,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68">
+      <c r="A48" s="73">
         <v>8</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -14466,7 +14478,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="23" t="s">
         <v>129</v>
       </c>
@@ -14484,7 +14496,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="68"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="24" t="s">
         <v>88</v>
       </c>
@@ -14502,7 +14514,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
@@ -14520,7 +14532,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="11" t="s">
         <v>89</v>
       </c>
@@ -14538,7 +14550,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="11" t="s">
         <v>126</v>
       </c>
@@ -14556,7 +14568,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="11" t="s">
         <v>124</v>
       </c>
@@ -14582,58 +14594,58 @@
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="76"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="67"/>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="94"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="95"/>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="92"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="94"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="95"/>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="79"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="70"/>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
@@ -16814,17 +16826,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="312.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="104" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="38" t="s">
         <v>139</v>
       </c>
@@ -16834,31 +16846,31 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="77.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="103" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="107" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="26">
         <v>0</v>
       </c>
@@ -16877,7 +16889,7 @@
       <c r="J3" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:47" s="9" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -17011,7 +17023,7 @@
       </c>
     </row>
     <row r="8" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68">
+      <c r="A8" s="73">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -17031,7 +17043,7 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="11" t="s">
         <v>95</v>
       </c>
@@ -17049,7 +17061,7 @@
       </c>
     </row>
     <row r="10" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="11" t="s">
         <v>93</v>
       </c>
@@ -17067,7 +17079,7 @@
       </c>
     </row>
     <row r="11" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="11" t="s">
         <v>98</v>
       </c>
@@ -17105,7 +17117,7 @@
       </c>
     </row>
     <row r="13" spans="1:47" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68">
+      <c r="A13" s="73">
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -17125,7 +17137,7 @@
       </c>
     </row>
     <row r="14" spans="1:47" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
@@ -17143,7 +17155,7 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
@@ -17385,7 +17397,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="11" t="s">
         <v>134</v>
       </c>
@@ -17423,7 +17435,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68">
+      <c r="A30" s="73">
         <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -17443,7 +17455,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="11" t="s">
         <v>120</v>
       </c>
@@ -17461,7 +17473,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="11" t="s">
         <v>113</v>
       </c>
@@ -17479,7 +17491,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
@@ -17497,7 +17509,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="11" t="s">
         <v>127</v>
       </c>
@@ -17515,7 +17527,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="11" t="s">
         <v>130</v>
       </c>
@@ -17627,7 +17639,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="11" t="s">
         <v>116</v>
       </c>
@@ -17665,7 +17677,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68">
+      <c r="A43" s="73">
         <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -17685,7 +17697,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="11" t="s">
         <v>118</v>
       </c>
@@ -17703,7 +17715,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="11" t="s">
         <v>119</v>
       </c>
@@ -17724,58 +17736,58 @@
       <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="96"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="100"/>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="99"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="103"/>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="99"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="1:11" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="102"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="106"/>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
@@ -19907,6 +19919,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATb/5D/nSyYLHad3QR2wBkD2IuP/vhCyxjhQRk5CqFExUMRFPaD6v0ct5gHhNV/MKDJfYoYWlDE2f7yfEK4PlA==" saltValue="fujVjPZWQmrZQ8R70egwSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A47:K50"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A30:A35"/>
@@ -19914,13 +19933,6 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A47:K50"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
